--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -758,8 +758,8 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,11 +818,11 @@
       </c>
       <c r="J2" s="14">
         <f>SUM(F:F)</f>
-        <v>65178</v>
+        <v>65400</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(G:G)</f>
-        <v>59452</v>
+        <v>59507</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -981,11 +981,12 @@
         <v>54</v>
       </c>
       <c r="F13" s="3">
-        <v>1600</v>
+        <f>1600+167+55</f>
+        <v>1822</v>
       </c>
       <c r="G13" s="3">
-        <f>1600+167</f>
-        <v>1767</v>
+        <f>1600+167+55</f>
+        <v>1822</v>
       </c>
       <c r="L13" s="8"/>
     </row>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,11 +818,11 @@
       </c>
       <c r="J2" s="14">
         <f>SUM(F:F)</f>
-        <v>65400</v>
+        <v>65440</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(G:G)</f>
-        <v>59507</v>
+        <v>59547</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1085,12 +1085,12 @@
         <v>51</v>
       </c>
       <c r="F19">
-        <f>435+1890+600+1335+120+120</f>
-        <v>4500</v>
+        <f>435+1890+600+1335+120+120+40</f>
+        <v>4540</v>
       </c>
       <c r="G19">
-        <f>435+1890+600+1335+120+120</f>
-        <v>4500</v>
+        <f>435+1890+600+1335+120+120+40</f>
+        <v>4540</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,11 +818,11 @@
       </c>
       <c r="J2" s="14">
         <f>SUM(F:F)</f>
-        <v>65440</v>
+        <v>65740</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(G:G)</f>
-        <v>59547</v>
+        <v>60547</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -880,8 +880,8 @@
         <v>12555</v>
       </c>
       <c r="G7" s="15">
-        <f>7500+155+4400</f>
-        <v>12055</v>
+        <f>7500+155+4400+500</f>
+        <v>12555</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -913,6 +913,9 @@
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="G9" s="10">
+        <v>200</v>
+      </c>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1389,6 +1392,14 @@
         <v>300</v>
       </c>
       <c r="D45">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <f>150+150</f>
+        <v>300</v>
+      </c>
+      <c r="G45">
+        <f>150+150</f>
         <v>300</v>
       </c>
     </row>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -759,7 +759,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,11 +818,11 @@
       </c>
       <c r="J2" s="14">
         <f>SUM(F:F)</f>
-        <v>65740</v>
+        <v>66196</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(G:G)</f>
-        <v>60547</v>
+        <v>61003</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -930,6 +930,12 @@
       </c>
       <c r="E10" s="10" t="s">
         <v>32</v>
+      </c>
+      <c r="F10" s="10">
+        <v>456</v>
+      </c>
+      <c r="G10" s="10">
+        <v>456</v>
       </c>
       <c r="L10" s="11"/>
     </row>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,251 +78,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>桌子板凳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34*65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68*75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨柜吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*900+2.5*500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜隔离墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅卧室地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫地砖墙砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨柜吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22-6.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.22-7.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.27-8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安天然气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200*46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>窗帘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桌子板凳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铲墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64*20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11*140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50*75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34*65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68*75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50*20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨柜吊柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5*900+2.5*500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫找平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜隔离墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅卧室地砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫地砖墙砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥河沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腻子乳胶漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200*46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7*180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨柜吊柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次拆除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.22-6.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.22-7.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨蓬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.27-8.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修水管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安天然气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.18-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉墙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +381,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -423,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,6 +470,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,46 +776,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="12" max="12" width="12" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L1" s="6"/>
     </row>
@@ -814,7 +838,7 @@
       </c>
       <c r="I2" s="14">
         <f>SUM(D:D)</f>
-        <v>115720</v>
+        <v>121720</v>
       </c>
       <c r="J2" s="14">
         <f>SUM(F:F)</f>
@@ -822,12 +846,12 @@
       </c>
       <c r="K2" s="14">
         <f>SUM(G:G)</f>
-        <v>61003</v>
+        <v>64003</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -843,7 +867,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1600</v>
@@ -851,7 +875,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>6800</v>
@@ -864,7 +888,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>3750</v>
@@ -873,7 +897,7 @@
         <v>3750</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="15">
         <f>7500+155+4900</f>
@@ -886,7 +910,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>5100</v>
@@ -895,7 +919,7 @@
         <v>5100</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -911,7 +935,7 @@
         <v>1540</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="10">
         <v>200</v>
@@ -929,7 +953,7 @@
         <v>1280</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="10">
         <v>456</v>
@@ -939,20 +963,20 @@
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="16">
         <v>1000</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="16">
         <v>1000</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="11"/>
+      <c r="E11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -965,7 +989,7 @@
         <v>2210</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <f>520+600+200</f>
@@ -976,28 +1000,28 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3">
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="16">
         <v>9000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="16">
         <v>9200</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="16">
         <f>1600+167+55</f>
         <v>1822</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="16">
         <f>1600+167+55</f>
         <v>1822</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -1038,7 +1062,7 @@
     </row>
     <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="12">
         <v>1000</v>
@@ -1047,13 +1071,13 @@
         <v>1260</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -1070,7 +1094,7 @@
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3">
         <v>4500</v>
@@ -1079,7 +1103,7 @@
         <v>6750</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
@@ -1091,7 +1115,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <f>435+1890+600+1335+120+120+40</f>
@@ -1104,7 +1128,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -1115,7 +1139,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>555</v>
@@ -1126,7 +1150,7 @@
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3">
         <v>7500</v>
@@ -1186,20 +1210,20 @@
         <v>4400</v>
       </c>
       <c r="G26">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="10">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="16">
         <v>1000</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="16">
         <v>1000</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -1220,7 +1244,7 @@
     </row>
     <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" s="10">
         <v>2000</v>
@@ -1230,49 +1254,50 @@
       </c>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2000</v>
-      </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="10">
+    <row r="30" spans="2:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2000</v>
+      </c>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="16">
         <v>1000</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="16">
         <v>1000</v>
       </c>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="L31" s="17"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="34" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>15</v>
-      </c>
-      <c r="C34">
-        <v>1000</v>
-      </c>
-      <c r="D34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>16</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1281,9 +1306,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>500</v>
@@ -1292,9 +1317,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -1303,9 +1328,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>4000</v>
@@ -1314,9 +1339,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>8000</v>
@@ -1325,31 +1350,31 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>2000</v>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C40">
-        <v>2000</v>
-      </c>
-      <c r="D40">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>2000</v>
+      </c>
+      <c r="D41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C41">
-        <v>2000</v>
-      </c>
-      <c r="D41">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C42">
         <v>2000</v>
@@ -1364,9 +1389,9 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>1500</v>
@@ -1377,9 +1402,9 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>1500</v>
@@ -1390,9 +1415,9 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>300</v>
@@ -1409,9 +1434,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>6000</v>
@@ -1420,46 +1445,53 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47">
+    <row r="47" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="16">
         <v>500</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="16">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49">
-        <v>2000</v>
-      </c>
-      <c r="D49">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L52" s="9">
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="16">
+        <v>3000</v>
+      </c>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:13" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="16">
+        <v>3000</v>
+      </c>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>2000</v>
+      </c>
+      <c r="D51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L54" s="9">
         <v>6.16</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L53" s="9"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L54" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="M54" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.15">
@@ -1468,10 +1500,10 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L56" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.15">
@@ -1480,10 +1512,10 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L58" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.15">
@@ -1492,22 +1524,34 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L60" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="M61" s="4"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L62" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1589,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1553,7 +1597,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1600</v>
@@ -1561,7 +1605,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>6800</v>
@@ -1574,7 +1618,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>3750</v>
@@ -1582,7 +1626,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>5100</v>
@@ -1646,7 +1690,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1260</v>
@@ -1654,7 +1698,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>1800</v>
@@ -1662,7 +1706,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>6750</v>
@@ -1670,7 +1714,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="价格" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,71 +226,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>贴砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22-6.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.22-7.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.27-8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安天然气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200*46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨柜吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>衣柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厨柜吊柜</t>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅碗架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中盆打磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机上柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600*900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600*1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150*800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面刘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贴砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次拆除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.22-6.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.22-7.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨蓬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.27-8.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修水管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安天然气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.18-</t>
+  </si>
+  <si>
+    <t>河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美心木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木门超宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛金门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛金门2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,39 +477,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腻子乳胶漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200*46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
+    <t>防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧墙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303腻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面保护膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴砖工钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,18 +571,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -440,40 +609,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,38 +954,38 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="6"/>
+      <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -832,21 +997,21 @@
       <c r="C2">
         <v>8000</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <f>SUM(C:C)</f>
         <v>110330</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <f>SUM(D:D)</f>
         <v>121720</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="12">
         <f>SUM(F:F)</f>
-        <v>66196</v>
-      </c>
-      <c r="K2" s="14">
+        <v>71134</v>
+      </c>
+      <c r="K2" s="12">
         <f>SUM(G:G)</f>
-        <v>64003</v>
+        <v>68941</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -924,59 +1089,59 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>1500</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>1540</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>200</v>
       </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>1280</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>1280</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>456</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>456</v>
       </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>1000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>1000</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -1000,28 +1165,28 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="16">
+    <row r="13" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="13">
         <v>9000</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>9200</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="E13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="13">
         <f>1600+167+55</f>
         <v>1822</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <f>1600+167+55</f>
         <v>1822</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -1060,20 +1225,20 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>1000</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>1260</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
@@ -1092,26 +1257,26 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
         <v>4500</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>6750</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="3">
-        <v>500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>500</v>
-      </c>
-      <c r="L18" s="8"/>
+      <c r="F18">
+        <f>500+3473</f>
+        <v>3973</v>
+      </c>
+      <c r="G18">
+        <v>3973</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
@@ -1128,7 +1293,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -1139,7 +1304,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>555</v>
@@ -1148,23 +1313,22 @@
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23">
         <v>7500</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>7480</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>6893</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>5000</v>
       </c>
-      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -1213,17 +1377,17 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="16">
+    <row r="27" spans="2:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="13">
         <v>1000</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <v>1000</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -1236,64 +1400,71 @@
         <v>500</v>
       </c>
       <c r="F28">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="G28">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="10">
+        <f>570+26</f>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="8">
         <v>2000</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>2000</v>
       </c>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="2:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="13">
         <v>2000</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>2000</v>
       </c>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="2:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="F30" s="13">
+        <v>613</v>
+      </c>
+      <c r="G30" s="13">
+        <v>613</v>
+      </c>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="13">
         <v>1000</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>1000</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="16">
+    <row r="34" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="13">
         <v>1000</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>1000</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
@@ -1445,113 +1616,137 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="16">
+    <row r="47" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="13">
         <v>500</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="13">
         <v>500</v>
       </c>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="1:12" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="16">
+      <c r="F47" s="13">
+        <v>468</v>
+      </c>
+      <c r="G47" s="13">
+        <v>468</v>
+      </c>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="13">
         <v>3000</v>
       </c>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="49" spans="2:13" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="13">
         <v>3000</v>
       </c>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="13">
+        <v>358</v>
+      </c>
+      <c r="G50" s="13">
+        <v>358</v>
+      </c>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="L52" s="14"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="C51">
+      <c r="C54">
         <v>2000</v>
       </c>
-      <c r="D51">
+      <c r="D54">
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L54" s="9">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L57" s="7">
         <v>6.16</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L58" s="7"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L60" s="7"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L62" s="7"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L55" s="9"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L56" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L57" s="9"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L58" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L59" s="9"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L61" s="9"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L62" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-    </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L64" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>69</v>
+      <c r="L64" s="7"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1730,12 +1925,574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <f>5+30+25</f>
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>240</v>
+      </c>
+      <c r="E3">
+        <f>1+3+2.5+1.5+0.5+0.5+1/6</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v>2463.0000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>2.625</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F14" si="0">D7*E7</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>560</v>
+      </c>
+      <c r="E11">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2931.6000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>590</v>
+      </c>
+      <c r="E12">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2345.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>560</v>
+      </c>
+      <c r="E13">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1339.52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>660</v>
+      </c>
+      <c r="E14">
+        <v>0.42</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>277.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="1">D17*E17</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <f>68-1</f>
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <f>D21*E21</f>
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f>258-32</f>
+        <v>226</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F30" si="2">D22*E22</f>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23">
+        <v>9.5</v>
+      </c>
+      <c r="E23">
+        <f>273+48+10-27</f>
+        <v>304</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24">
+        <v>5.5</v>
+      </c>
+      <c r="E24">
+        <f>133-14</f>
+        <v>119</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>654.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <f>3-2</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30">
+        <v>700</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40">
+        <f>3000+1400</f>
+        <v>4400</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>D40*E40</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>1600</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F45" si="3">D41*E41</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>9*2</f>
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>130</v>
+      </c>
+      <c r="E43">
+        <f>7.24+5.12</f>
+        <v>12.36</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>1606.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44">
+        <v>480</v>
+      </c>
+      <c r="E44">
+        <v>1.4896</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>715.00800000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49">
+        <v>260</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F51" si="4">D49*E49</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>200</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51">
+        <v>150</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:F57" si="5">D54*E54</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55">
+        <v>160</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,30 @@
   </si>
   <si>
     <t>贴砖工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底漆5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立邦乳胶漆5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,9 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1007,11 +1031,11 @@
       </c>
       <c r="J2" s="12">
         <f>SUM(F:F)</f>
-        <v>71134</v>
+        <v>75557</v>
       </c>
       <c r="K2" s="12">
         <f>SUM(G:G)</f>
-        <v>68941</v>
+        <v>70014</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1065,12 +1089,12 @@
         <v>33</v>
       </c>
       <c r="F7" s="15">
-        <f>7500+155+4900</f>
-        <v>12555</v>
+        <f>7500+155+4400+500+526</f>
+        <v>13081</v>
       </c>
       <c r="G7" s="15">
-        <f>7500+155+4400+500</f>
-        <v>12555</v>
+        <f>7500+155+4400+500+526</f>
+        <v>13081</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -1179,12 +1203,11 @@
         <v>69</v>
       </c>
       <c r="F13" s="13">
-        <f>1600+167+55</f>
-        <v>1822</v>
+        <v>2369</v>
       </c>
       <c r="G13" s="13">
-        <f>1600+167+55</f>
-        <v>1822</v>
+        <f>1600+167+55+777-230</f>
+        <v>2369</v>
       </c>
       <c r="L13" s="14"/>
     </row>
@@ -1640,6 +1663,9 @@
       </c>
       <c r="D48" s="13">
         <v>3000</v>
+      </c>
+      <c r="F48" s="13">
+        <v>3350</v>
       </c>
       <c r="L48" s="14"/>
     </row>
@@ -1925,16 +1951,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F58"/>
+  <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
@@ -1948,548 +1978,629 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>39</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <f>5+30+25</f>
         <v>60</v>
       </c>
-      <c r="F2">
-        <f>D2*E2</f>
+      <c r="F3">
+        <f>D3*E3</f>
         <v>2340</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>240</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <f>1+3+2.5+1.5+0.5+0.5+1/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="F3">
-        <f>D3*E3</f>
+      <c r="F4">
+        <f>D4*E4</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>84</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>600</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>4.1050000000000004</v>
       </c>
-      <c r="F6">
-        <f>D6*E6</f>
+      <c r="F7">
+        <f>D7*E7</f>
         <v>2463.0000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>2.625</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F14" si="0">D7*E7</f>
-        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>400</v>
       </c>
       <c r="E8">
+        <v>2.625</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F15" si="0">D8*E8</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>560</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>5.2350000000000003</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>2931.6000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>91</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>590</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>3.9750000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>2345.25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>560</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>2.3919999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>1339.52</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>660</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.42</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>277.2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>57</v>
       </c>
-      <c r="F17">
-        <f t="shared" ref="F17" si="1">D17*E17</f>
+      <c r="F18">
+        <f t="shared" ref="F18" si="1">D18*E18</f>
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>26</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f>68-1</f>
         <v>67</v>
       </c>
-      <c r="F21">
-        <f>D21*E21</f>
+      <c r="F22">
+        <f>D22*E22</f>
         <v>1742</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f>258-32</f>
         <v>226</v>
       </c>
-      <c r="F22">
-        <f t="shared" ref="F22:F30" si="2">D22*E22</f>
+      <c r="F23">
+        <f t="shared" ref="F23:F31" si="2">D23*E23</f>
         <v>1808</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>9.5</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f>273+48+10-27</f>
         <v>304</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>2888</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>5.5</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f>133-14</f>
         <v>119</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>654.5</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>48</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>75</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>150</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>38</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>110</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <f t="shared" si="2"/>
         <v>4180</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>700</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>106</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>3040</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f>3000+1400</f>
         <v>4400</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="F40">
-        <f>D40*E40</f>
+      <c r="F41">
+        <f>D41*E41</f>
         <v>4400</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41">
-        <v>1600</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ref="F41:F45" si="3">D41*E41</f>
-        <v>3200</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42">
+        <v>1600</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F46" si="3">D42*E42</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>8</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f>9*2</f>
         <v>18</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>130</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f>7.24+5.12</f>
         <v>12.36</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <f t="shared" si="3"/>
         <v>1606.8</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
         <v>112</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>480</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>1.4896</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <f t="shared" si="3"/>
         <v>715.00800000000004</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>113</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>100</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>115</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>260</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>2</v>
       </c>
-      <c r="F49">
-        <f t="shared" ref="F49:F51" si="4">D49*E49</f>
+      <c r="F50">
+        <f t="shared" ref="F50:F52" si="4">D50*E50</f>
         <v>520</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D50">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D51">
         <v>200</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
         <v>116</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>150</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>114</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>117</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>30</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>13</v>
       </c>
-      <c r="F54">
-        <f t="shared" ref="F54:F57" si="5">D54*E54</f>
+      <c r="F55">
+        <f t="shared" ref="F55:F62" si="5">D55*E55</f>
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
         <v>118</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>160</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>119</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>28</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>25</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
         <v>120</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>55</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>3</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
         <v>121</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>22</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60">
+        <v>420</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61">
+        <v>180</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62">
+        <v>85</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>10.89</v>
+      </c>
+      <c r="F65">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69">
+        <v>134</v>
+      </c>
+      <c r="F69">
+        <f>D69*E69</f>
+        <v>3350</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,26 @@
   </si>
   <si>
     <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,9 +987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1031,11 +1051,11 @@
       </c>
       <c r="J2" s="12">
         <f>SUM(F:F)</f>
-        <v>75557</v>
+        <v>80135</v>
       </c>
       <c r="K2" s="12">
         <f>SUM(G:G)</f>
-        <v>70014</v>
+        <v>74592</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1165,6 +1185,13 @@
       <c r="E11" s="13" t="s">
         <v>36</v>
       </c>
+      <c r="F11" s="13">
+        <v>662</v>
+      </c>
+      <c r="G11" s="13">
+        <f>200+462</f>
+        <v>662</v>
+      </c>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1203,11 +1230,11 @@
         <v>69</v>
       </c>
       <c r="F13" s="13">
-        <v>2369</v>
+        <v>6285</v>
       </c>
       <c r="G13" s="13">
-        <f>1600+167+55+777-230</f>
-        <v>2369</v>
+        <f>1600+167+55+777-230+3916</f>
+        <v>6285</v>
       </c>
       <c r="L13" s="14"/>
     </row>
@@ -1951,11 +1978,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F69"/>
+  <dimension ref="B1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2154,453 +2181,501 @@
         <v>456</v>
       </c>
     </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>52.8</v>
+      </c>
+      <c r="F21">
+        <f>D21*E21</f>
+        <v>422.4</v>
+      </c>
+    </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>26</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <f>68-1</f>
         <v>67</v>
       </c>
-      <c r="F22">
-        <f>D22*E22</f>
+      <c r="F26">
+        <f>D26*E26</f>
         <v>1742</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <f>258-32</f>
         <v>226</v>
       </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F31" si="2">D23*E23</f>
+      <c r="F27">
+        <f t="shared" ref="F27:F35" si="2">D27*E27</f>
         <v>1808</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>9.5</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <f>273+48+10-27</f>
         <v>304</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>2888</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>5.5</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <f>133-14</f>
         <v>119</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <f t="shared" si="2"/>
         <v>654.5</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
         <v>99</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>48</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>75</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F31">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>150</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>122</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>38</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <v>110</v>
       </c>
-      <c r="F30">
+      <c r="F34">
         <f t="shared" si="2"/>
         <v>4180</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>700</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34">
-        <v>3500</v>
-      </c>
-    </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="F38">
+      <c r="F42">
         <v>3040</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>107</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>108</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <f>3000+1400</f>
         <v>4400</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="F41">
-        <f>D41*E41</f>
+      <c r="F45">
+        <f>D45*E45</f>
         <v>4400</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>1600</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F42">
-        <f t="shared" ref="F42:F46" si="3">D42*E42</f>
+      <c r="F46">
+        <f t="shared" ref="F46:F50" si="3">D46*E46</f>
         <v>3200</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>110</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>8</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <f>9*2</f>
         <v>18</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>111</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <v>130</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <f>7.24+5.12</f>
         <v>12.36</v>
       </c>
-      <c r="F44">
+      <c r="F48">
         <f t="shared" si="3"/>
         <v>1606.8</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
         <v>112</v>
       </c>
-      <c r="D45">
+      <c r="D49">
         <v>480</v>
       </c>
-      <c r="E45">
+      <c r="E49">
         <v>1.4896</v>
       </c>
-      <c r="F45">
+      <c r="F49">
         <f t="shared" si="3"/>
         <v>715.00800000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="D46">
+      <c r="D50">
         <v>100</v>
       </c>
-      <c r="E46">
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="F50">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>260</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>2</v>
       </c>
-      <c r="F50">
-        <f t="shared" ref="F50:F52" si="4">D50*E50</f>
+      <c r="F54">
+        <f t="shared" ref="F54:F56" si="4">D54*E54</f>
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D51">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D55">
         <v>200</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>4</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <v>150</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="F52">
+      <c r="F56">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>114</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" t="s">
         <v>117</v>
       </c>
-      <c r="D55">
+      <c r="D59">
         <v>30</v>
       </c>
-      <c r="E55">
+      <c r="E59">
         <v>13</v>
       </c>
-      <c r="F55">
-        <f t="shared" ref="F55:F62" si="5">D55*E55</f>
+      <c r="F59">
+        <f t="shared" ref="F59:F66" si="5">D59*E59</f>
         <v>390</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
         <v>118</v>
       </c>
-      <c r="D56">
+      <c r="D60">
         <v>160</v>
       </c>
-      <c r="E56">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F56">
+      <c r="F60">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
         <v>119</v>
       </c>
-      <c r="D57">
+      <c r="D61">
         <v>28</v>
       </c>
-      <c r="E57">
+      <c r="E61">
         <v>25</v>
       </c>
-      <c r="F57">
+      <c r="F61">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
         <v>120</v>
       </c>
-      <c r="D58">
+      <c r="D62">
         <v>55</v>
       </c>
-      <c r="E58">
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="F58">
+      <c r="F62">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
         <v>121</v>
       </c>
-      <c r="D59">
+      <c r="D63">
         <v>22</v>
       </c>
-      <c r="F59">
+      <c r="F63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
         <v>125</v>
       </c>
-      <c r="D60">
+      <c r="D64">
         <v>420</v>
       </c>
-      <c r="E60">
+      <c r="E64">
         <v>1</v>
       </c>
-      <c r="F60">
+      <c r="F64">
         <f t="shared" si="5"/>
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
         <v>124</v>
       </c>
-      <c r="D61">
+      <c r="D65">
         <v>180</v>
       </c>
-      <c r="E61">
+      <c r="E65">
         <v>1</v>
       </c>
-      <c r="F61">
+      <c r="F65">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
         <v>126</v>
       </c>
-      <c r="D62">
+      <c r="D66">
         <v>85</v>
       </c>
-      <c r="E62">
+      <c r="E66">
         <v>2</v>
       </c>
-      <c r="F62">
+      <c r="F66">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
-      <c r="E65">
-        <v>10.89</v>
-      </c>
-      <c r="F65">
-        <v>1089</v>
-      </c>
-    </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>10.89</v>
+      </c>
+      <c r="F69">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>128</v>
       </c>
-      <c r="D69">
+      <c r="D73">
         <v>25</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <v>134</v>
       </c>
-      <c r="F69">
-        <f>D69*E69</f>
+      <c r="F73">
+        <f>D73*E73</f>
         <v>3350</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="装修花费" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="价格" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,11 +70,487 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>软装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34*65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68*75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨柜吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*900+2.5*500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜隔离墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅卧室地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫地砖墙砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22-6.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.22-7.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已支付汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.27-8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安天然气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨柜吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅碗架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中盆打磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机上柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600*900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600*1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150*800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美心木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木门超宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛金门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛金门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧墙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303腻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面保护膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴砖工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底漆5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立邦乳胶漆5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉墙工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次拆除工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装天然气工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装电灯工钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清运一车建渣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水工我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴角线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200*46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蹲便池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软装</t>
+    <t>灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18-10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,163 +582,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铲墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64*20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11*140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50*75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34*65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68*75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50*20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨柜吊柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5*900+2.5*500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫找平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜隔离墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅卧室地砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫地砖墙砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥河沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7*180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次拆除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.22-6.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.22-7.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已支付汇总</t>
+    <t>洗漱台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,286 +590,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.27-8.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修水管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安天然气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.18-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腻子乳胶漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200*46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开关插座等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨柜吊柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅碗架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中盆打磨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机上柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴角线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600*600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300*600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300*300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600*900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600*1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150*800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面刘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴砖</t>
-  </si>
-  <si>
-    <t>河沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电工钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美心木门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木门超宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛金门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛金门2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧墙面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303腻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然界面剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石膏粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面保护膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴砖工钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫吊顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底漆5L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立邦乳胶漆5L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踢脚线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
+    <t>窗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,12 +655,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF00B050"/>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -636,7 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,21 +714,21 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,11 +1031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,31 +1049,31 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L1" s="5"/>
     </row>
@@ -1041,26 +1087,26 @@
       <c r="C2">
         <v>8000</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <f>SUM(C:C)</f>
         <v>110330</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <f>SUM(D:D)</f>
         <v>121720</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>80135</v>
-      </c>
-      <c r="K2" s="12">
+        <v>84235</v>
+      </c>
+      <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>74592</v>
+        <v>75692</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1076,15 +1122,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1600</v>
       </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>6800</v>
@@ -1097,7 +1149,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>3750</v>
@@ -1106,20 +1158,20 @@
         <v>3750</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="15">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="9">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>5100</v>
@@ -1128,71 +1180,71 @@
         <v>5100</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9">
         <v>1500</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>1540</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8">
-        <v>200</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>1100</v>
+      </c>
+      <c r="G9">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10">
         <v>1280</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>1280</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
         <v>456</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>456</v>
       </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
         <v>1000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11">
         <v>1000</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11">
         <v>662</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11">
         <f>200+462</f>
         <v>662</v>
       </c>
-      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
@@ -1205,7 +1257,7 @@
         <v>2210</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <f>520+600+200</f>
@@ -1216,27 +1268,26 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13">
         <v>9000</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13">
         <v>9200</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13">
         <v>6285</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13">
         <f>1600+167+55+777-230+3916</f>
         <v>6285</v>
       </c>
-      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -1275,24 +1326,24 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="10">
+    <row r="16" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14">
         <v>1000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="14">
         <v>1260</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="11"/>
+      <c r="E16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -1309,7 +1360,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>4500</v>
@@ -1318,7 +1369,7 @@
         <v>6750</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <f>500+3473</f>
@@ -1330,7 +1381,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <f>435+1890+600+1335+120+120+40</f>
@@ -1343,7 +1394,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -1354,7 +1405,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>555</v>
@@ -1365,7 +1416,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>7500</v>
@@ -1390,10 +1441,10 @@
       <c r="D24">
         <v>2000</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="9">
         <v>5765</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="9">
         <v>5765</v>
       </c>
     </row>
@@ -1407,8 +1458,8 @@
       <c r="D25">
         <v>2000</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -1427,21 +1478,21 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13">
+    <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1">
         <v>1000</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="1">
         <v>1000</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C28">
         <v>500</v>
@@ -1457,275 +1508,280 @@
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="8">
+    <row r="29" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="11">
         <v>2000</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>2000</v>
       </c>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="2:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
         <v>2000</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30">
         <v>2000</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30">
         <v>613</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30">
         <v>613</v>
       </c>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="2:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="13">
+    </row>
+    <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="1">
         <v>1000</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="1">
         <v>1000</v>
       </c>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="13">
+      <c r="F31" s="1">
         <v>1000</v>
       </c>
-      <c r="D34" s="13">
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3350</v>
+      </c>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1">
         <v>1000</v>
       </c>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
+      <c r="D36" s="1">
         <v>1000</v>
       </c>
-      <c r="D35">
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
+      <c r="D37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="1">
         <v>500</v>
       </c>
-      <c r="D36">
+      <c r="D38" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37">
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="1">
         <v>2000</v>
       </c>
-      <c r="D37">
+      <c r="D39" s="1">
         <v>2400</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1">
         <v>4000</v>
       </c>
-      <c r="D38">
+      <c r="D40" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39">
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1">
         <v>8000</v>
       </c>
-      <c r="D39">
+      <c r="D41" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40">
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1">
         <v>2000</v>
       </c>
-      <c r="D40">
+      <c r="D42" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41">
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="1">
         <v>2000</v>
       </c>
-      <c r="D41">
+      <c r="D43" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42">
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45">
         <v>2000</v>
       </c>
-      <c r="D42">
+      <c r="D45">
         <v>2000</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F45" s="9">
         <v>3650</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G45" s="9">
         <v>3650</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46">
         <v>1500</v>
       </c>
-      <c r="D43">
+      <c r="D46">
         <v>1500</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47">
         <v>1500</v>
       </c>
-      <c r="D44">
+      <c r="D47">
         <v>1500</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48">
         <v>300</v>
       </c>
-      <c r="D45">
+      <c r="D48">
         <v>300</v>
       </c>
-      <c r="F45">
+      <c r="F48">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G45">
+      <c r="G48">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46">
-        <v>6000</v>
-      </c>
-      <c r="D46">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49">
         <v>500</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D49">
         <v>500</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F49">
         <v>468</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G49">
         <v>468</v>
       </c>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="13">
-        <v>3000</v>
-      </c>
-      <c r="F48" s="13">
-        <v>3350</v>
-      </c>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="13">
-        <v>3000</v>
-      </c>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="13">
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50">
         <v>358</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50">
         <v>358</v>
       </c>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="2:13" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="L52" s="14"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>2000</v>
@@ -1739,7 +1795,7 @@
         <v>6.16</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.15">
@@ -1748,10 +1804,10 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L59" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.15">
@@ -1760,10 +1816,10 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L61" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.15">
@@ -1772,10 +1828,10 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L63" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.15">
@@ -1784,10 +1840,10 @@
     </row>
     <row r="65" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L65" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="12:13" x14ac:dyDescent="0.15">
@@ -1796,20 +1852,32 @@
     </row>
     <row r="67" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L67" s="7" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F45:F47"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1822,7 +1890,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1837,7 +1905,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1845,7 +1913,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1600</v>
@@ -1853,7 +1921,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>6800</v>
@@ -1866,7 +1934,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>3750</v>
@@ -1874,7 +1942,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>5100</v>
@@ -1938,7 +2006,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1260</v>
@@ -1946,7 +2014,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1800</v>
@@ -1954,7 +2022,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>6750</v>
@@ -1962,7 +2030,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -1978,16 +2046,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F77"/>
+  <dimension ref="B1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -1996,21 +2064,21 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>39</v>
@@ -2026,7 +2094,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>240</v>
@@ -2042,10 +2110,10 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>600</v>
@@ -2060,7 +2128,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -2075,7 +2143,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>400</v>
@@ -2090,7 +2158,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -2105,10 +2173,10 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>560</v>
@@ -2123,7 +2191,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>590</v>
@@ -2138,7 +2206,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>560</v>
@@ -2153,7 +2221,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>660</v>
@@ -2168,7 +2236,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -2183,10 +2251,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -2201,7 +2269,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>200</v>
@@ -2209,7 +2277,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>40</v>
@@ -2217,10 +2285,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -2236,7 +2304,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -2246,13 +2314,13 @@
         <v>226</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F35" si="2">D27*E27</f>
+        <f t="shared" ref="F27:F32" si="2">D27*E27</f>
         <v>1808</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>9.5</v>
@@ -2268,7 +2336,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>5.5</v>
@@ -2284,7 +2352,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>48</v>
@@ -2300,7 +2368,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>75</v>
@@ -2315,7 +2383,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2328,354 +2396,412 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>110</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>4180</v>
-      </c>
-    </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35">
-        <v>700</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>144</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37">
         <v>3040</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
         <f>3000+1400</f>
         <v>4400</v>
       </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>D40*E40</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>1600</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F45" si="3">D41*E41</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>9*2</f>
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>130</v>
+      </c>
+      <c r="E43">
+        <f>7.24+5.12</f>
+        <v>12.36</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>1606.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <v>480</v>
+      </c>
+      <c r="E44">
+        <v>1.4896</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>715.00800000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <f>D45*E45</f>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46">
-        <v>1600</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ref="F46:F50" si="3">D46*E46</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <f>9*2</f>
-        <v>18</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48">
-        <v>130</v>
-      </c>
-      <c r="E48">
-        <f>7.24+5.12</f>
-        <v>12.36</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>1606.8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49">
-        <v>480</v>
-      </c>
-      <c r="E49">
-        <v>1.4896</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>715.00800000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49">
+        <v>260</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F51" si="4">D49*E49</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>200</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51">
+        <v>150</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>115</v>
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
       </c>
       <c r="D54">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F56" si="4">D54*E54</f>
-        <v>520</v>
+        <f t="shared" ref="F54:F60" si="5">D54*E54</f>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
       <c r="D55">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
-        <v>800</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D56">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58">
+        <v>420</v>
+      </c>
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>150</v>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="E59">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F66" si="5">D59*E59</f>
-        <v>390</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D60">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61">
-        <v>28</v>
-      </c>
-      <c r="E61">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67">
         <v>25</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="5"/>
+      <c r="E67">
+        <v>134</v>
+      </c>
+      <c r="F67">
+        <f>D67*E67</f>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82">
+        <v>38</v>
+      </c>
+      <c r="E82">
+        <v>110</v>
+      </c>
+      <c r="F82">
+        <f>D82*E82</f>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83">
         <v>700</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62">
-        <v>55</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f>D83*E83</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84">
         <v>22</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64">
-        <v>420</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="5"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65">
-        <v>180</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66">
-        <v>85</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
-      <c r="E69">
-        <v>10.89</v>
-      </c>
-      <c r="F69">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73">
-        <v>25</v>
-      </c>
-      <c r="E73">
-        <v>134</v>
-      </c>
-      <c r="F73">
-        <f>D73*E73</f>
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77">
+      <c r="E84">
+        <v>178</v>
+      </c>
+      <c r="F84">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>52</v>
+      </c>
+      <c r="F85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87">
         <v>18</v>
       </c>
-      <c r="E77">
-        <v>100</v>
-      </c>
-      <c r="F77">
-        <v>1800</v>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -715,9 +715,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -729,6 +726,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,8 +1034,8 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>75692</v>
+        <v>77585</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1160,11 +1160,11 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="15">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="15">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
@@ -1182,8 +1182,8 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
@@ -1326,20 +1326,20 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>1000</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1260</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
@@ -1428,7 +1428,8 @@
         <v>6893</v>
       </c>
       <c r="G23">
-        <v>5000</v>
+        <f>1000+4000+1893</f>
+        <v>6893</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
@@ -1441,10 +1442,10 @@
       <c r="D24">
         <v>2000</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="15">
         <v>5765</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="15">
         <v>5765</v>
       </c>
     </row>
@@ -1458,8 +1459,8 @@
       <c r="D25">
         <v>2000</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -1488,7 +1489,7 @@
       <c r="D27" s="1">
         <v>1000</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -1508,17 +1509,17 @@
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>2000</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>2000</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
@@ -1550,7 +1551,7 @@
       <c r="F31" s="1">
         <v>1000</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
@@ -1562,7 +1563,7 @@
       <c r="F32" s="1">
         <v>3350</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
@@ -1574,7 +1575,7 @@
       <c r="F33" s="1">
         <v>1800</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
@@ -1591,7 +1592,7 @@
       <c r="D36" s="1">
         <v>1000</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
@@ -1603,7 +1604,7 @@
       <c r="D37" s="1">
         <v>1000</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
@@ -1615,7 +1616,7 @@
       <c r="D38" s="1">
         <v>500</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
@@ -1627,7 +1628,7 @@
       <c r="D39" s="1">
         <v>2400</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
@@ -1639,7 +1640,7 @@
       <c r="D40" s="1">
         <v>4000</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
@@ -1651,7 +1652,7 @@
       <c r="D41" s="1">
         <v>8000</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
@@ -1663,7 +1664,7 @@
       <c r="D42" s="1">
         <v>2000</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
@@ -1675,7 +1676,7 @@
       <c r="D43" s="1">
         <v>2000</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
@@ -1687,7 +1688,7 @@
       <c r="D44" s="1">
         <v>6000</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
@@ -1699,10 +1700,10 @@
       <c r="D45">
         <v>2000</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="15">
         <v>3650</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="15">
         <v>3650</v>
       </c>
     </row>
@@ -1716,8 +1717,8 @@
       <c r="D46">
         <v>1500</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
@@ -1729,8 +1730,8 @@
       <c r="D47">
         <v>1500</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -526,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.14-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美缝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,6 +595,10 @@
   </si>
   <si>
     <t>界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-8.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,8 +1034,8 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24:G25"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>77585</v>
+        <v>79385</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1481,7 +1481,7 @@
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1">
         <v>1000</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="10">
         <v>2000</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1">
         <v>1000</v>
@@ -1575,6 +1575,9 @@
       <c r="F33" s="1">
         <v>1800</v>
       </c>
+      <c r="G33" s="1">
+        <v>1800</v>
+      </c>
       <c r="L33" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -1596,7 +1599,7 @@
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1">
         <v>1000</v>
@@ -1608,7 +1611,7 @@
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1">
         <v>500</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1">
         <v>2000</v>
@@ -1632,7 +1635,7 @@
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1">
         <v>4000</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1">
         <v>8000</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1">
         <v>2000</v>
@@ -1668,7 +1671,7 @@
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1">
         <v>2000</v>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1">
         <v>6000</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45">
         <v>2000</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46">
         <v>1500</v>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>1500</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48">
         <v>300</v>
@@ -1865,10 +1868,10 @@
     </row>
     <row r="69" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L69" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2399,7 +2402,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35">
         <v>10400</v>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装修花费" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,6 +599,10 @@
   </si>
   <si>
     <t>8.14-8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安油烟机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,11 +1035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,11 +1101,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>84235</v>
+        <v>84431</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>79385</v>
+        <v>79581</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1414,6 +1418,17 @@
         <v>555</v>
       </c>
     </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22">
+        <v>286</v>
+      </c>
+      <c r="G22">
+        <v>286</v>
+      </c>
+    </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>51</v>
@@ -1573,33 +1588,24 @@
         <v>3000</v>
       </c>
       <c r="F33" s="1">
-        <v>1800</v>
+        <v>1710</v>
       </c>
       <c r="G33" s="1">
-        <v>1800</v>
+        <v>1710</v>
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L34" s="9"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1">
         <v>1000</v>
@@ -1611,67 +1617,67 @@
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D38" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D39" s="1">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D40" s="1">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D41" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D42" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1">
         <v>2000</v>
@@ -1683,49 +1689,48 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>6000</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>6000</v>
       </c>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45">
-        <v>2000</v>
-      </c>
-      <c r="D45">
-        <v>2000</v>
-      </c>
-      <c r="F45" s="15">
-        <v>3650</v>
-      </c>
-      <c r="G45" s="15">
-        <v>3650</v>
-      </c>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D46">
-        <v>1500</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+        <v>2000</v>
+      </c>
+      <c r="F46" s="15">
+        <v>3650</v>
+      </c>
+      <c r="G46" s="15">
+        <v>3650</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>1500</v>
@@ -1738,150 +1743,163 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>1500</v>
+      </c>
+      <c r="D48">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>131</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>300</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>300</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49">
-        <v>500</v>
-      </c>
-      <c r="D49">
-        <v>500</v>
-      </c>
-      <c r="F49">
-        <v>468</v>
-      </c>
-      <c r="G49">
-        <v>468</v>
-      </c>
-    </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50">
+        <v>500</v>
+      </c>
+      <c r="D50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>468</v>
+      </c>
+      <c r="G50">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>124</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>358</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>2000</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L57" s="7">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L58" s="7">
         <v>6.16</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L58" s="7"/>
-      <c r="M58" s="3"/>
-    </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L59" s="7" t="s">
+      <c r="L59" s="7"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L60" s="7"/>
-      <c r="M60" s="3"/>
-    </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="7"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L62" s="7"/>
-      <c r="M62" s="3"/>
-    </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="7"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L64" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L64" s="7"/>
-      <c r="M64" s="3"/>
-    </row>
     <row r="65" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="7"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L66" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-    </row>
     <row r="67" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L68" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M68" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-    </row>
     <row r="69" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L70" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="M70" s="7" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F46:F48"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G46:G48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2052,9 +2070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2802,6 +2820,12 @@
       <c r="D87">
         <v>18</v>
       </c>
+      <c r="E87">
+        <v>95</v>
+      </c>
+      <c r="F87">
+        <v>1710</v>
+      </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" t="s">

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="装修花费" sheetId="1" r:id="rId1"/>
@@ -1037,9 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>79581</v>
+        <v>82931</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1576,6 +1576,9 @@
         <v>3000</v>
       </c>
       <c r="F32" s="1">
+        <v>3350</v>
+      </c>
+      <c r="G32" s="1">
         <v>3350</v>
       </c>
       <c r="L32" s="9"/>
@@ -2070,9 +2073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="163">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆除工钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二次拆除工钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +599,74 @@
   </si>
   <si>
     <t>安油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所架子六件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室6件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅、次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙帘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,6 +796,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,11 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,11 +1168,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>84431</v>
+        <v>98020</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>82931</v>
+        <v>88431</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1191,7 +1258,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>1500</v>
@@ -1200,7 +1267,7 @@
         <v>1540</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>1100</v>
@@ -1211,7 +1278,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>1280</v>
@@ -1220,7 +1287,7 @@
         <v>1280</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>456</v>
@@ -1231,7 +1298,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>1000</v>
@@ -1240,7 +1307,7 @@
         <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>662</v>
@@ -1274,7 +1341,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>9000</v>
@@ -1283,7 +1350,7 @@
         <v>9200</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>6285</v>
@@ -1420,7 +1487,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22">
         <v>286</v>
@@ -1496,7 +1563,7 @@
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1">
         <v>1000</v>
@@ -1504,11 +1571,17 @@
       <c r="D27" s="1">
         <v>1000</v>
       </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+      <c r="G27" s="1">
+        <v>500</v>
+      </c>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28">
         <v>500</v>
@@ -1526,7 +1599,7 @@
     </row>
     <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="10">
         <v>2000</v>
@@ -1538,7 +1611,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>2000</v>
@@ -1555,7 +1628,7 @@
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1">
         <v>1000</v>
@@ -1570,7 +1643,7 @@
     </row>
     <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1">
         <v>3000</v>
@@ -1585,7 +1658,7 @@
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1">
         <v>3000</v>
@@ -1599,28 +1672,31 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="1">
+        <v>450</v>
+      </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1">
         <v>1000</v>
@@ -1628,71 +1704,93 @@
       <c r="D38" s="1">
         <v>1000</v>
       </c>
+      <c r="G38" s="1">
+        <v>1000</v>
+      </c>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D39" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D40" s="1">
-        <v>2400</v>
+        <v>500</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1159</v>
+      </c>
+      <c r="G40" s="16">
+        <v>4000</v>
       </c>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D41" s="1">
-        <v>4000</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1239</v>
+      </c>
+      <c r="G41" s="16"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D42" s="1">
-        <v>8000</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5463</v>
+      </c>
+      <c r="G42" s="16"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D43" s="1">
-        <v>2000</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="F43" s="1">
+        <f>2557+1600+421</f>
+        <v>4578</v>
+      </c>
+      <c r="G43" s="16"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1">
         <v>2000</v>
@@ -1704,49 +1802,48 @@
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1">
         <v>6000</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>6000</v>
       </c>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46">
-        <v>2000</v>
-      </c>
-      <c r="D46">
-        <v>2000</v>
-      </c>
-      <c r="F46" s="15">
-        <v>3650</v>
-      </c>
-      <c r="G46" s="15">
-        <v>3650</v>
-      </c>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D47">
-        <v>1500</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+        <v>2000</v>
+      </c>
+      <c r="F47" s="15">
+        <v>3650</v>
+      </c>
+      <c r="G47" s="15">
+        <v>3650</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48">
         <v>1500</v>
@@ -1759,150 +1856,164 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49">
+        <v>1500</v>
+      </c>
+      <c r="D49">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50">
         <v>300</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>300</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50">
-        <v>500</v>
-      </c>
-      <c r="D50">
-        <v>500</v>
-      </c>
-      <c r="F50">
-        <v>468</v>
-      </c>
-      <c r="G50">
-        <v>468</v>
-      </c>
-    </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>500</v>
+      </c>
+      <c r="D51">
+        <v>500</v>
       </c>
       <c r="F51">
+        <v>468</v>
+      </c>
+      <c r="G51">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52">
         <v>358</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>2000</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L58" s="7">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="7">
         <v>6.16</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L59" s="7"/>
-      <c r="M59" s="3"/>
-    </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="7"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L61" s="7"/>
-      <c r="M61" s="3"/>
-    </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="7"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L63" s="7"/>
-      <c r="M63" s="3"/>
-    </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="7"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L65" s="7"/>
-      <c r="M65" s="3"/>
-    </row>
     <row r="66" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="7"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-    </row>
     <row r="68" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M68" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L70" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F46:F48"/>
+  <mergeCells count="7">
+    <mergeCell ref="F47:F49"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G40:G43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2071,11 +2182,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F88"/>
+  <dimension ref="B1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2408,7 +2519,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2423,7 +2534,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35">
         <v>10400</v>
@@ -2714,7 +2825,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D71">
         <v>200</v>
@@ -2726,113 +2837,269 @@
         <v>200</v>
       </c>
     </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74">
+        <v>5463</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75">
+        <v>1239</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76">
+        <v>1159</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77">
+        <v>2557</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78">
+        <v>421</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>421</v>
+      </c>
+    </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>104</v>
+      <c r="C79" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79">
+        <v>1600</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>3600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80">
-        <v>1400</v>
+      <c r="E80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>75</v>
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81">
+        <v>600</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>3500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>91</v>
+      <c r="C82" t="s">
+        <v>157</v>
       </c>
       <c r="D82">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="E82">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <f>D82*E82</f>
-        <v>4180</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>110</v>
+      <c r="C83" t="s">
+        <v>158</v>
       </c>
       <c r="D83">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <f>D83*E83</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84">
-        <v>22</v>
-      </c>
-      <c r="E84">
-        <v>178</v>
-      </c>
-      <c r="F84">
-        <v>3916</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <v>38</v>
+      </c>
+      <c r="E91">
+        <v>110</v>
+      </c>
+      <c r="F91">
+        <f>D91*E91</f>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92">
+        <v>700</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <f>D92*E92</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93">
+        <v>22</v>
+      </c>
+      <c r="E93">
+        <v>178</v>
+      </c>
+      <c r="F93">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="D85">
+      <c r="D94">
         <v>5</v>
       </c>
-      <c r="E85">
+      <c r="E94">
         <v>52</v>
       </c>
-      <c r="F85">
+      <c r="F94">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
         <v>106</v>
       </c>
-      <c r="F86">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+      <c r="F96">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>107</v>
-      </c>
-      <c r="D87">
-        <v>18</v>
-      </c>
-      <c r="E87">
-        <v>95</v>
-      </c>
-      <c r="F87">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装修花费" sheetId="1" r:id="rId1"/>
@@ -1104,9 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>98020</v>
+        <v>100581</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
@@ -1703,6 +1703,9 @@
       </c>
       <c r="D38" s="1">
         <v>1000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2561</v>
       </c>
       <c r="G38" s="1">
         <v>1000</v>
@@ -2184,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,15 +658,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客厅、次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主卧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沙帘</t>
+    <t>辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,11 +2197,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F97"/>
+  <dimension ref="B1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2982,18 +2994,33 @@
         <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D85">
         <v>75</v>
       </c>
+      <c r="E85">
+        <v>6.6</v>
+      </c>
+      <c r="F85">
+        <f>D85*E85</f>
+        <v>495</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86">
-        <v>65</v>
+        <f>65+30</f>
+        <v>95</v>
+      </c>
+      <c r="E86">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F90" si="6">D86*E86</f>
+        <v>826.49999999999989</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
@@ -3001,112 +3028,168 @@
         <v>162</v>
       </c>
       <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87">
+        <v>4.3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>322.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <f>6.6+8.7+8.7+4.3</f>
+        <v>28.3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>104</v>
+      <c r="E89">
+        <f>3.28+8.7+2.14</f>
+        <v>14.12</v>
       </c>
       <c r="F89">
-        <v>1400</v>
+        <f t="shared" si="6"/>
+        <v>423.59999999999997</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>75</v>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90">
+        <v>30</v>
+      </c>
+      <c r="E90">
+        <f>2+4+1</f>
+        <v>7</v>
       </c>
       <c r="F90">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91">
-        <v>38</v>
-      </c>
-      <c r="E91">
-        <v>110</v>
-      </c>
-      <c r="F91">
-        <f>D91*E91</f>
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>109</v>
-      </c>
-      <c r="D92">
-        <v>700</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <f>D92*E92</f>
-        <v>700</v>
+        <f t="shared" si="6"/>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93">
-        <v>22</v>
-      </c>
-      <c r="E93">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="F93">
-        <v>3916</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F94">
-        <v>200</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <v>38</v>
+      </c>
+      <c r="E95">
+        <v>110</v>
       </c>
       <c r="F95">
-        <v>555</v>
+        <f>D95*E95</f>
+        <v>4180</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96">
+        <v>700</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f>D96*E96</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97">
+        <v>22</v>
+      </c>
+      <c r="E97">
+        <v>178</v>
+      </c>
+      <c r="F97">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>52</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="D96">
+      <c r="D100">
         <v>18</v>
       </c>
-      <c r="E96">
+      <c r="E100">
         <v>95</v>
       </c>
-      <c r="F96">
+      <c r="F100">
         <v>1710</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="装修花费" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="184">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,78 @@
   </si>
   <si>
     <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关494灯具安装费220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关及灯具安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫扣板灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开五孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,9 +1188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1180,11 +1252,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>100581</v>
+        <v>100727</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>88431</v>
+        <v>89754</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1387,8 +1459,11 @@
         <v>6540</v>
       </c>
       <c r="G14">
-        <f>3000+3040</f>
-        <v>6040</v>
+        <f>3000+3040+500</f>
+        <v>6540</v>
+      </c>
+      <c r="H14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1632,10 +1707,11 @@
         <v>2000</v>
       </c>
       <c r="F30">
-        <v>613</v>
+        <f>454+119+98+49+39</f>
+        <v>759</v>
       </c>
       <c r="G30">
-        <v>613</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1650,6 +1726,13 @@
       </c>
       <c r="F31" s="1">
         <v>1000</v>
+      </c>
+      <c r="G31" s="1">
+        <f>494+220</f>
+        <v>714</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="L31" s="9"/>
     </row>
@@ -2197,16 +2280,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F101"/>
+  <dimension ref="B1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -3088,102 +3171,326 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93">
+        <v>80</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1400</v>
+        <f>D93*E93</f>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
-        <v>75</v>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>3500</v>
+        <f t="shared" ref="F94:F97" si="7">D94*E94</f>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
-        <v>91</v>
+      <c r="C95" t="s">
+        <v>171</v>
       </c>
       <c r="D95">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <f>D95*E95</f>
-        <v>4180</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
-        <v>109</v>
+      <c r="C96" t="s">
+        <v>172</v>
       </c>
       <c r="D96">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <f>D96*E96</f>
-        <v>700</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
-        <v>102</v>
+      <c r="C97" t="s">
+        <v>173</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
-        <v>103</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>52</v>
-      </c>
-      <c r="F98">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
-        <v>105</v>
-      </c>
-      <c r="F99">
-        <v>555</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>29</v>
+      </c>
+      <c r="F100">
+        <f>D100*E100</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ref="F101:F108" si="8">D101*E101</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F111">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F112">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D113">
+        <v>38</v>
+      </c>
+      <c r="E113">
+        <v>110</v>
+      </c>
+      <c r="F113">
+        <f>D113*E113</f>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D114">
+        <v>700</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f>D114*E114</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115">
+        <v>22</v>
+      </c>
+      <c r="E115">
+        <v>178</v>
+      </c>
+      <c r="F115">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>52</v>
+      </c>
+      <c r="F116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>91</v>
+      </c>
+      <c r="F117">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>95</v>
+      </c>
+      <c r="F118">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
         <v>106</v>
       </c>
-      <c r="D100">
-        <v>18</v>
-      </c>
-      <c r="E100">
-        <v>95</v>
-      </c>
-      <c r="F100">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
         <v>107</v>
       </c>
     </row>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -562,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,6 +747,10 @@
   </si>
   <si>
     <t>白面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,8 +1189,8 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>89754</v>
+        <v>98692</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1463,7 +1463,7 @@
         <v>6540</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1574,7 +1574,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22">
         <v>286</v>
@@ -1648,140 +1648,142 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="1">
-        <v>600</v>
-      </c>
-      <c r="G27" s="1">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27">
         <v>500</v>
       </c>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28">
+      <c r="D27">
         <v>500</v>
       </c>
-      <c r="D28">
-        <v>500</v>
-      </c>
-      <c r="F28">
+      <c r="F27">
         <v>596</v>
       </c>
-      <c r="G28">
+      <c r="G27">
         <f>570+26</f>
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="10">
+    <row r="28" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="10">
         <v>2000</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D28" s="10">
         <v>2000</v>
       </c>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C29">
         <v>2000</v>
       </c>
-      <c r="D30">
+      <c r="D29">
         <v>2000</v>
       </c>
-      <c r="F30">
+      <c r="F29">
         <f>454+119+98+49+39</f>
         <v>759</v>
       </c>
-      <c r="G30">
+      <c r="G29">
         <v>722</v>
       </c>
+    </row>
+    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="1">
+        <f>494+220</f>
+        <v>714</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1000</v>
+        <v>121</v>
       </c>
       <c r="D31" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F31" s="1">
-        <v>1000</v>
+        <v>3350</v>
       </c>
       <c r="G31" s="1">
-        <f>494+220</f>
-        <v>714</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>167</v>
+        <v>3350</v>
       </c>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" s="1">
         <v>3000</v>
       </c>
       <c r="F32" s="1">
-        <v>3350</v>
+        <v>1710</v>
       </c>
       <c r="G32" s="1">
-        <v>3350</v>
+        <v>1710</v>
       </c>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1000</v>
       </c>
       <c r="D33" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="1">
-        <v>1710</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1710</v>
+        <v>600</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1000</v>
       </c>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1">
         <v>450</v>
       </c>
+      <c r="G34" s="16"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
       </c>
+      <c r="G35" s="16"/>
       <c r="L35" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -1833,7 +1835,8 @@
         <v>1159</v>
       </c>
       <c r="G40" s="16">
-        <v>4000</v>
+        <f>4000+8438</f>
+        <v>12438</v>
       </c>
       <c r="L40" s="9"/>
     </row>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1">
         <v>8000</v>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1">
         <v>2000</v>
@@ -1900,7 +1903,7 @@
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1">
         <v>2000</v>
@@ -2097,14 +2100,14 @@
     </row>
     <row r="71" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L71" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="F47:F49"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F24:F25"/>
@@ -2112,6 +2115,7 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G47:G49"/>
     <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G33:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,8 +2287,8 @@
   <dimension ref="B1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2617,7 +2621,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2632,7 +2636,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F35">
         <v>10400</v>
@@ -2937,10 +2941,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
         <v>148</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
       </c>
       <c r="D74">
         <v>5463</v>
@@ -2954,7 +2958,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75">
         <v>1239</v>
@@ -2968,7 +2972,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76">
         <v>1159</v>
@@ -2982,7 +2986,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D77">
         <v>2557</v>
@@ -2996,7 +3000,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78">
         <v>421</v>
@@ -3010,7 +3014,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D79">
         <v>1600</v>
@@ -3029,10 +3033,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
         <v>155</v>
-      </c>
-      <c r="C81" t="s">
-        <v>156</v>
       </c>
       <c r="D81">
         <v>600</v>
@@ -3046,7 +3050,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82">
         <v>450</v>
@@ -3060,7 +3064,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D83">
         <v>100</v>
@@ -3074,10 +3078,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D85">
         <v>75</v>
@@ -3092,7 +3096,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D86">
         <f>65+30</f>
@@ -3108,7 +3112,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87">
         <v>75</v>
@@ -3123,7 +3127,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -3139,7 +3143,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -3155,7 +3159,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3171,10 +3175,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
         <v>168</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
       </c>
       <c r="D93">
         <v>80</v>
@@ -3189,7 +3193,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94">
         <v>50</v>
@@ -3204,7 +3208,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -3219,7 +3223,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96">
         <v>20</v>
@@ -3234,7 +3238,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -3249,10 +3253,10 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" t="s">
         <v>174</v>
-      </c>
-      <c r="C100" t="s">
-        <v>175</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -3267,7 +3271,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -3282,7 +3286,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -3297,7 +3301,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -3312,7 +3316,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3327,7 +3331,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -3342,7 +3346,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D106">
         <v>17</v>
@@ -3357,7 +3361,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3372,7 +3376,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D108">
         <v>10</v>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="185">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装电灯工钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清运一车建渣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +498,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18-10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌子板凳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室6件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫扣板灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开五孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关494灯具安装费220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>墙布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,94 +738,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.18-10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌子板凳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗漱台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雨蓬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.14-8.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厕所架子六件套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,151 +750,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床头柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室6件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料3040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关494灯具安装费220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关及灯具安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫扣板灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五孔插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开五孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
+    <t>开关及灯具安装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +842,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -851,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -879,12 +889,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1186,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1252,11 +1263,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>100727</v>
+        <v>102427</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>98692</v>
+        <v>99192</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1297,330 +1308,313 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3750</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>3750</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="16">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="16">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>5100</v>
-      </c>
-      <c r="D8">
-        <v>5100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>1500</v>
+        <v>5100</v>
       </c>
       <c r="D9">
-        <v>1540</v>
+        <v>5100</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9">
-        <v>1100</v>
-      </c>
-      <c r="G9">
-        <v>1100</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D10">
-        <v>1280</v>
+        <v>1540</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10">
-        <v>456</v>
+        <v>1100</v>
       </c>
       <c r="G10">
-        <v>456</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>1280</v>
+      </c>
+      <c r="D11">
+        <v>1280</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11">
+        <v>456</v>
+      </c>
+      <c r="G11">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12" t="s">
         <v>114</v>
       </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11">
+      <c r="F12">
         <v>662</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f>200+462</f>
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2200</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>2210</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f>520+600+200</f>
         <v>1320</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f>520+600+200</f>
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>9000</v>
+      </c>
+      <c r="D14">
+        <v>9200</v>
+      </c>
+      <c r="E14" t="s">
         <v>116</v>
       </c>
-      <c r="C13">
-        <v>9000</v>
-      </c>
-      <c r="D13">
-        <v>9200</v>
-      </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13">
+      <c r="F14">
         <v>6285</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f>1600+167+55+777-230+3916</f>
         <v>6285</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>8400</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>8400</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f>3500+3040</f>
         <v>6540</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f>3000+3040+500</f>
         <v>6540</v>
       </c>
-      <c r="H14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="H15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>9300</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>9350</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>10400</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f>1400+9000</f>
         <v>10400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13" t="s">
+    <row r="17" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C17" s="13">
         <v>1000</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>1260</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
-      </c>
-      <c r="D17">
-        <v>1800</v>
-      </c>
-      <c r="F17">
-        <v>900</v>
-      </c>
-      <c r="G17">
-        <v>900</v>
-      </c>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>1800</v>
+      </c>
+      <c r="F18">
+        <v>900</v>
+      </c>
+      <c r="G18">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4500</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>6750</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f>500+3473</f>
         <v>3973</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>3973</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f>435+1890+600+1335+120+120+40</f>
         <v>4540</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <f>435+1890+600+1335+120+120+40</f>
         <v>4540</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20">
-        <v>90</v>
-      </c>
-      <c r="G20">
-        <v>90</v>
-      </c>
-    </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>555</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>555</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F22">
-        <v>286</v>
+        <v>555</v>
       </c>
       <c r="G22">
-        <v>286</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23">
+        <v>286</v>
+      </c>
+      <c r="G23">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>7500</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>7480</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>6893</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f>1000+4000+1893</f>
         <v>6893</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>2000</v>
-      </c>
-      <c r="D24">
-        <v>2000</v>
-      </c>
-      <c r="F24" s="15">
-        <v>5765</v>
-      </c>
-      <c r="G24" s="15">
-        <v>5765</v>
-      </c>
-    </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1628,12 +1622,16 @@
       <c r="D25">
         <v>2000</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="16">
+        <v>5765</v>
+      </c>
+      <c r="G25" s="16">
+        <v>5765</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>2000</v>
@@ -1641,481 +1639,520 @@
       <c r="D26">
         <v>2000</v>
       </c>
-      <c r="F26">
-        <v>4400</v>
-      </c>
-      <c r="G26">
-        <v>4400</v>
-      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="F27">
+        <v>4400</v>
+      </c>
+      <c r="G27">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
         <v>500</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>500</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>596</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <f>570+26</f>
         <v>596</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="10">
+    <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="10">
         <v>2000</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>2000</v>
       </c>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31">
         <v>2000</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2000</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <f>454+119+98+49+39</f>
         <v>759</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="1">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32">
         <v>1000</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D32">
         <v>1000</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F32">
         <v>1000</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G32">
         <f>494+220</f>
         <v>714</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33">
         <v>3000</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F33">
         <v>3350</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G33">
         <v>3350</v>
       </c>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34">
         <v>3000</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F34">
         <v>1710</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G34">
         <v>1710</v>
       </c>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35">
         <v>1000</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D35">
         <v>1000</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F35">
         <v>600</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G35" s="16">
         <v>1000</v>
       </c>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36">
         <v>450</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="G36" s="16"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37">
         <v>100</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="G37" s="16"/>
+      <c r="L37"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2561</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2561</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42">
         <v>500</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D42">
         <v>500</v>
       </c>
-      <c r="F40" s="1">
+      <c r="E42"/>
+      <c r="F42">
         <v>1159</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G42" s="16">
         <f>4000+8438</f>
         <v>12438</v>
       </c>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43"/>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43">
         <v>2000</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D43">
         <v>2400</v>
       </c>
-      <c r="F41" s="1">
+      <c r="E43"/>
+      <c r="F43">
         <v>1239</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="G43" s="16"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44">
         <v>4000</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D44">
         <v>4000</v>
       </c>
-      <c r="F42" s="1">
+      <c r="E44"/>
+      <c r="F44">
         <v>5463</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="G44" s="16"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45">
         <v>8000</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D45">
         <v>8000</v>
       </c>
-      <c r="F43" s="1">
+      <c r="E45"/>
+      <c r="F45">
         <f>2557+1600+421</f>
         <v>4578</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2000</v>
-      </c>
+      <c r="G45" s="16"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="15">
+        <v>500</v>
+      </c>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1">
         <v>6000</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D49" s="1">
         <v>6000</v>
       </c>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47">
-        <v>2000</v>
-      </c>
-      <c r="D47">
-        <v>2000</v>
-      </c>
-      <c r="F47" s="15">
-        <v>3650</v>
-      </c>
-      <c r="G47" s="15">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48">
-        <v>1500</v>
-      </c>
-      <c r="D48">
-        <v>1500</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49">
-        <v>1500</v>
-      </c>
-      <c r="D49">
-        <v>1500</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C50">
+        <v>2000</v>
+      </c>
+      <c r="D50">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="16">
+        <v>3650</v>
+      </c>
+      <c r="G50" s="16">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51">
+        <v>1500</v>
+      </c>
+      <c r="D51">
+        <v>1500</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52">
+        <v>1500</v>
+      </c>
+      <c r="D52">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53">
         <v>300</v>
       </c>
-      <c r="D50">
+      <c r="D53">
         <v>300</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G50">
+      <c r="G53">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54">
+        <v>500</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>468</v>
+      </c>
+      <c r="G54">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>120</v>
       </c>
-      <c r="C51">
-        <v>500</v>
-      </c>
-      <c r="D51">
-        <v>500</v>
-      </c>
-      <c r="F51">
-        <v>468</v>
-      </c>
-      <c r="G51">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+      <c r="F55">
+        <v>358</v>
+      </c>
+      <c r="G55">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>2000</v>
+      </c>
+      <c r="D59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L62" s="7">
+        <v>6.16</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="7"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="7"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="7"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L68" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="7"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L72" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F52">
-        <v>358</v>
-      </c>
-      <c r="G52">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56">
-        <v>2000</v>
-      </c>
-      <c r="D56">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L59" s="7">
-        <v>6.16</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L60" s="7"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L61" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L62" s="7"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L63" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L64" s="7"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L65" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L66" s="7"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L67" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-    </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L69" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L71" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G35:G37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2287,8 +2324,8 @@
   <dimension ref="B1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2621,7 +2658,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2636,7 +2673,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F35">
         <v>10400</v>
@@ -2927,7 +2964,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>200</v>
@@ -2941,10 +2978,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D74">
         <v>5463</v>
@@ -2958,7 +2995,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D75">
         <v>1239</v>
@@ -2972,7 +3009,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D76">
         <v>1159</v>
@@ -2986,7 +3023,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D77">
         <v>2557</v>
@@ -3000,7 +3037,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D78">
         <v>421</v>
@@ -3014,7 +3051,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D79">
         <v>1600</v>
@@ -3033,10 +3070,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D81">
         <v>600</v>
@@ -3050,7 +3087,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D82">
         <v>450</v>
@@ -3064,7 +3101,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D83">
         <v>100</v>
@@ -3078,10 +3115,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D85">
         <v>75</v>
@@ -3096,7 +3133,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D86">
         <f>65+30</f>
@@ -3112,7 +3149,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D87">
         <v>75</v>
@@ -3127,7 +3164,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -3143,7 +3180,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -3159,7 +3196,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3175,10 +3212,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D93">
         <v>80</v>
@@ -3193,7 +3230,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D94">
         <v>50</v>
@@ -3208,7 +3245,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -3223,7 +3260,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D96">
         <v>20</v>
@@ -3238,7 +3275,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -3253,10 +3290,10 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -3271,7 +3308,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -3286,7 +3323,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -3301,7 +3338,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -3316,7 +3353,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3331,7 +3368,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -3346,7 +3383,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D106">
         <v>17</v>
@@ -3361,7 +3398,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3376,7 +3413,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -3389,113 +3426,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F111">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F112">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D113">
-        <v>38</v>
-      </c>
-      <c r="E113">
-        <v>110</v>
-      </c>
-      <c r="F113">
-        <f>D113*E113</f>
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D114">
-        <v>700</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <f>D114*E114</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115">
-        <v>22</v>
-      </c>
-      <c r="E115">
-        <v>178</v>
-      </c>
-      <c r="F115">
-        <v>3916</v>
-      </c>
-    </row>
+    <row r="114" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>75</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F116">
-        <v>200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F117">
-        <v>555</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D118">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E118">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F118">
-        <v>1710</v>
+        <f>D118*E118</f>
+        <v>4180</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="D119">
+        <v>700</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <f>D119*E119</f>
+        <v>700</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D120">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>178</v>
+      </c>
+      <c r="F120">
+        <v>3916</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>52</v>
+      </c>
+      <c r="F121">
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="F122">
+        <v>555</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D123">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>95</v>
+      </c>
+      <c r="F123">
+        <v>1710</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -892,10 +892,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1201,7 +1201,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>99192</v>
+        <v>100753</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1326,11 +1326,11 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="17">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="17">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
@@ -1348,8 +1348,8 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -1622,10 +1622,10 @@
       <c r="D25">
         <v>2000</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="17">
         <v>5765</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="17">
         <v>5765</v>
       </c>
     </row>
@@ -1639,8 +1639,8 @@
       <c r="D26">
         <v>2000</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -1778,7 +1778,7 @@
       <c r="F35">
         <v>600</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="17">
         <v>1000</v>
       </c>
       <c r="L35"/>
@@ -1790,7 +1790,7 @@
       <c r="F36">
         <v>450</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="17"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -1800,7 +1800,7 @@
       <c r="F37">
         <v>100</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="17"/>
       <c r="L37"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -1822,7 +1822,8 @@
         <v>2561</v>
       </c>
       <c r="G40" s="1">
-        <v>1000</v>
+        <f>1000+1561</f>
+        <v>2561</v>
       </c>
       <c r="L40" s="9"/>
     </row>
@@ -1853,7 +1854,7 @@
       <c r="F42">
         <v>1159</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="17">
         <f>4000+8438</f>
         <v>12438</v>
       </c>
@@ -1874,7 +1875,7 @@
       <c r="F43">
         <v>1239</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="17"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1892,7 +1893,7 @@
       <c r="F44">
         <v>5463</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="17"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1911,7 +1912,7 @@
         <f>2557+1600+421</f>
         <v>4578</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="17"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1972,10 +1973,10 @@
       <c r="D50">
         <v>2000</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="17">
         <v>3650</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="17">
         <v>3650</v>
       </c>
     </row>
@@ -1989,8 +1990,8 @@
       <c r="D51">
         <v>1500</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
@@ -2002,8 +2003,8 @@
       <c r="D52">
         <v>1500</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
@@ -3426,7 +3427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>104</v>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -502,11 +502,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8.18-10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗菜盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌子板凳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室6件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>窗帘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.18-10.10</t>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫扣板灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开五孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关494灯具安装费220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,95 +730,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗菜盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌子板凳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨蓬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.14-8.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床头柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗漱台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浴室6件套</t>
+    <t>厕所架子六件套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,151 +742,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开关及灯具安装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>窗帘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料3040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫扣板灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五孔插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开五孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关494灯具安装费220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所架子六件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关及灯具安装费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,9 +888,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1200,8 +1197,8 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,7 +1264,7 @@
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>100753</v>
+        <v>101953</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1326,11 +1323,11 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f>7500+155+4400+500+526</f>
         <v>13081</v>
       </c>
@@ -1348,8 +1345,8 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -1474,7 +1471,7 @@
         <v>6540</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1585,7 +1582,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23">
         <v>286</v>
@@ -1622,10 +1619,10 @@
       <c r="D25">
         <v>2000</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>5765</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>5765</v>
       </c>
     </row>
@@ -1639,8 +1636,8 @@
       <c r="D26">
         <v>2000</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -1679,7 +1676,7 @@
     </row>
     <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="10">
         <v>2000</v>
@@ -1691,7 +1688,7 @@
     </row>
     <row r="30" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L30" s="11"/>
     </row>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -1731,13 +1728,13 @@
         <v>714</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1752,7 +1749,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34">
         <v>3000</v>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1778,29 +1775,29 @@
       <c r="F35">
         <v>600</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="16">
         <v>1000</v>
       </c>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F36">
         <v>450</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F37">
         <v>100</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="16"/>
       <c r="L37"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -1808,28 +1805,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40">
         <v>1000</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>1000</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>2561</v>
       </c>
       <c r="G40" s="1">
         <f>1000+1561</f>
         <v>2561</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1">
         <v>1000</v>
@@ -1842,7 +1839,7 @@
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42">
         <v>500</v>
@@ -1854,7 +1851,7 @@
       <c r="F42">
         <v>1159</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="16">
         <f>4000+8438</f>
         <v>12438</v>
       </c>
@@ -1863,7 +1860,7 @@
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C43">
         <v>2000</v>
@@ -1875,13 +1872,13 @@
       <c r="F43">
         <v>1239</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="16"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44">
         <v>4000</v>
@@ -1893,13 +1890,13 @@
       <c r="F44">
         <v>5463</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="16"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>8000</v>
@@ -1912,24 +1909,25 @@
         <f>2557+1600+421</f>
         <v>4578</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="1">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46">
         <v>1700</v>
       </c>
-      <c r="G46" s="15">
-        <v>500</v>
-      </c>
-      <c r="L46" s="9"/>
+      <c r="G46" s="1">
+        <f>500+1200</f>
+        <v>1700</v>
+      </c>
+      <c r="L46"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1">
         <v>2000</v>
@@ -1941,7 +1939,7 @@
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>2000</v>
@@ -1953,7 +1951,7 @@
     </row>
     <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1">
         <v>6000</v>
@@ -1965,7 +1963,7 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -1973,16 +1971,16 @@
       <c r="D50">
         <v>2000</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>3650</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="16">
         <v>3650</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>1500</v>
@@ -1990,12 +1988,12 @@
       <c r="D51">
         <v>1500</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52">
         <v>1500</v>
@@ -2003,12 +2001,12 @@
       <c r="D52">
         <v>1500</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53">
         <v>300</v>
@@ -2126,7 +2124,7 @@
     </row>
     <row r="72" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>49</v>
@@ -2138,10 +2136,10 @@
     </row>
     <row r="74" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L74" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2657,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2674,7 +2672,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35">
         <v>10400</v>
@@ -2979,10 +2977,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
         <v>137</v>
-      </c>
-      <c r="C74" t="s">
-        <v>138</v>
       </c>
       <c r="D74">
         <v>5463</v>
@@ -2996,7 +2994,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D75">
         <v>1239</v>
@@ -3010,7 +3008,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76">
         <v>1159</v>
@@ -3024,7 +3022,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77">
         <v>2557</v>
@@ -3038,7 +3036,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78">
         <v>421</v>
@@ -3052,7 +3050,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79">
         <v>1600</v>
@@ -3071,10 +3069,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
         <v>144</v>
-      </c>
-      <c r="C81" t="s">
-        <v>145</v>
       </c>
       <c r="D81">
         <v>600</v>
@@ -3088,7 +3086,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82">
         <v>450</v>
@@ -3102,7 +3100,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D83">
         <v>100</v>
@@ -3116,10 +3114,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85">
         <v>75</v>
@@ -3134,7 +3132,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D86">
         <f>65+30</f>
@@ -3150,7 +3148,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87">
         <v>75</v>
@@ -3165,7 +3163,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -3181,7 +3179,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -3197,7 +3195,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3213,10 +3211,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D93">
         <v>80</v>
@@ -3231,7 +3229,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94">
         <v>50</v>
@@ -3246,7 +3244,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -3261,7 +3259,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96">
         <v>20</v>
@@ -3276,7 +3274,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -3291,10 +3289,10 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" t="s">
         <v>161</v>
-      </c>
-      <c r="C100" t="s">
-        <v>162</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -3309,7 +3307,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -3324,7 +3322,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -3339,7 +3337,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -3354,7 +3352,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3369,7 +3367,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -3384,7 +3382,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D106">
         <v>17</v>
@@ -3399,7 +3397,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3414,7 +3412,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -3427,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>104</v>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,55 +706,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关494灯具安装费220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所架子六件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关及灯具安装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>沙发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关494灯具安装费220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所架子六件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关及灯具安装费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小床</t>
+    <t>11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安沙发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42:G45"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,11 +1268,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>102427</v>
+        <v>100964</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>101953</v>
+        <v>100490</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1688,7 +1696,7 @@
     </row>
     <row r="30" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L30" s="11"/>
     </row>
@@ -1712,7 +1720,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -1728,13 +1736,13 @@
         <v>714</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1749,7 +1757,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34">
         <v>3000</v>
@@ -1764,7 +1772,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1782,7 +1790,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36">
         <v>450</v>
@@ -1792,7 +1800,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -1807,7 +1815,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -1818,7 +1826,7 @@
       <c r="F40">
         <v>2561</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <f>1000+1561</f>
         <v>2561</v>
       </c>
@@ -1852,8 +1860,8 @@
         <v>1159</v>
       </c>
       <c r="G42" s="16">
-        <f>4000+8438</f>
-        <v>12438</v>
+        <f>4000+8438-5463</f>
+        <v>6975</v>
       </c>
       <c r="L42" s="9"/>
     </row>
@@ -1877,31 +1885,23 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
-      <c r="B44" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44">
-        <v>4000</v>
-      </c>
-      <c r="D44">
-        <v>4000</v>
-      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
       <c r="E44"/>
-      <c r="F44">
-        <v>5463</v>
-      </c>
+      <c r="F44"/>
       <c r="G44" s="16"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45">
+        <v>172</v>
+      </c>
+      <c r="C45" s="16">
         <v>8000</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="16">
         <v>8000</v>
       </c>
       <c r="E45"/>
@@ -1914,32 +1914,41 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>184</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="F46">
         <v>1700</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <f>500+1200</f>
         <v>1700</v>
       </c>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L47" s="9"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47">
+        <v>4000</v>
+      </c>
+      <c r="D47">
+        <v>4000</v>
+      </c>
+      <c r="F47">
+        <v>4000</v>
+      </c>
+      <c r="G47">
+        <f>1000+3000</f>
+        <v>4000</v>
+      </c>
+      <c r="L47"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="1">
         <v>2000</v>
@@ -1951,49 +1960,48 @@
     </row>
     <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>6000</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>6000</v>
       </c>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50">
-        <v>2000</v>
-      </c>
-      <c r="D50">
-        <v>2000</v>
-      </c>
-      <c r="F50" s="16">
-        <v>3650</v>
-      </c>
-      <c r="G50" s="16">
-        <v>3650</v>
-      </c>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D51">
-        <v>1500</v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+        <v>2000</v>
+      </c>
+      <c r="F51" s="16">
+        <v>3650</v>
+      </c>
+      <c r="G51" s="16">
+        <v>3650</v>
+      </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52">
         <v>1500</v>
@@ -2006,150 +2014,177 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53">
+        <v>1500</v>
+      </c>
+      <c r="D53">
+        <v>1500</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>126</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>300</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>300</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54">
-        <v>500</v>
-      </c>
-      <c r="D54">
-        <v>500</v>
-      </c>
-      <c r="F54">
-        <v>468</v>
-      </c>
-      <c r="G54">
-        <v>468</v>
-      </c>
-    </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55">
+        <v>500</v>
+      </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="F55">
+        <v>468</v>
+      </c>
+      <c r="G55">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>120</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>358</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>2000</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L62" s="7">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="7">
         <v>6.16</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L63" s="7"/>
-      <c r="M63" s="3"/>
-    </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="7"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L65" s="7"/>
-      <c r="M65" s="3"/>
-    </row>
     <row r="66" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="7"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L67" s="7"/>
-      <c r="M67" s="3"/>
-    </row>
     <row r="68" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="7"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L69" s="7"/>
-      <c r="M69" s="3"/>
-    </row>
     <row r="70" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="7"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-    </row>
     <row r="72" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L73" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M73" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-    </row>
     <row r="74" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L75" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M75" s="7" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L77" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F50:F52"/>
+  <mergeCells count="10">
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="G42:G45"/>
     <mergeCell ref="G35:G37"/>
   </mergeCells>
@@ -2323,7 +2358,7 @@
   <dimension ref="B1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
@@ -3211,7 +3246,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
         <v>155</v>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,243 +526,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>桌子板凳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室6件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫扣板灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开五孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关494灯具安装费220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所架子六件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关及灯具安装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>空调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桌子板凳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雨蓬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.14-8.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床头柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室6件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料3040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫扣板灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五孔插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开五孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关494灯具安装费220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所架子六件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关及灯具安装费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安沙发</t>
+    <t>高压锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饭煲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碗盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,11 +1226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,11 +1292,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>100964</v>
+        <v>108256</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>100490</v>
+        <v>107782</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1479,7 +1503,7 @@
         <v>6540</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1590,7 +1614,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23">
         <v>286</v>
@@ -1682,21 +1706,21 @@
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="10">
+    <row r="29" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="1">
         <v>2000</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="1">
         <v>2000</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L30" s="11"/>
     </row>
@@ -1720,7 +1744,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -1736,13 +1760,13 @@
         <v>714</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1757,7 +1781,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D34">
         <v>3000</v>
@@ -1772,7 +1796,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1790,7 +1814,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F36">
         <v>450</v>
@@ -1800,7 +1824,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -1815,7 +1839,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -1834,7 +1858,7 @@
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1">
         <v>1000</v>
@@ -1847,7 +1871,7 @@
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C42">
         <v>500</v>
@@ -1868,7 +1892,7 @@
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43">
         <v>2000</v>
@@ -1896,7 +1920,7 @@
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C45" s="16">
         <v>8000</v>
@@ -1914,7 +1938,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -1929,7 +1953,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C47">
         <v>4000</v>
@@ -1946,75 +1970,86 @@
       </c>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="1">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48">
+        <v>1899</v>
+      </c>
+      <c r="G48">
+        <v>1899</v>
+      </c>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49">
         <v>2000</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49">
         <v>2000</v>
       </c>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="F49">
+        <v>2194</v>
+      </c>
+      <c r="G49">
+        <v>2194</v>
+      </c>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50">
         <v>2000</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50">
         <v>2000</v>
       </c>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="F50">
+        <v>2499</v>
+      </c>
+      <c r="G50">
+        <v>2499</v>
+      </c>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="1">
         <v>6000</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>6000</v>
       </c>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>2000</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>2000</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="16">
         <v>3650</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="16">
         <v>3650</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>124</v>
-      </c>
-      <c r="C52">
-        <v>1500</v>
-      </c>
-      <c r="D52">
-        <v>1500</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>125</v>
       </c>
       <c r="C53">
         <v>1500</v>
@@ -2025,168 +2060,236 @@
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>126</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>300</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>300</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>119</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>500</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>500</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>468</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>468</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>120</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>358</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58">
+        <v>134</v>
+      </c>
+      <c r="G58">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59">
+        <v>218</v>
+      </c>
+      <c r="G59">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60">
+        <v>146</v>
+      </c>
+      <c r="G60">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61">
+        <v>143</v>
+      </c>
+      <c r="G61">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>18</v>
       </c>
-      <c r="C60">
+      <c r="C66">
         <v>2000</v>
       </c>
-      <c r="D60">
+      <c r="D66">
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L63" s="7">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="7">
         <v>6.16</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L64" s="7"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L65" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L66" s="7"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L67" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L68" s="7"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L70" s="7"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
       <c r="L71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L72" s="7"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L74" s="7"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L75" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L76" s="7"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L77" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-    </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L73" s="7" t="s">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L79" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M79" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L75" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M75" s="7" t="s">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L81" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L77" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>186</v>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+    </row>
+    <row r="83" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L83" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G35:G37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F52:F54"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G35:G37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,7 +2795,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2707,7 +2810,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F35">
         <v>10400</v>
@@ -3012,10 +3115,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D74">
         <v>5463</v>
@@ -3029,7 +3132,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D75">
         <v>1239</v>
@@ -3043,7 +3146,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D76">
         <v>1159</v>
@@ -3057,7 +3160,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D77">
         <v>2557</v>
@@ -3071,7 +3174,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D78">
         <v>421</v>
@@ -3085,7 +3188,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D79">
         <v>1600</v>
@@ -3104,10 +3207,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D81">
         <v>600</v>
@@ -3121,7 +3224,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D82">
         <v>450</v>
@@ -3135,7 +3238,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D83">
         <v>100</v>
@@ -3149,10 +3252,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D85">
         <v>75</v>
@@ -3167,7 +3270,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D86">
         <f>65+30</f>
@@ -3183,7 +3286,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D87">
         <v>75</v>
@@ -3198,7 +3301,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -3214,7 +3317,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -3230,7 +3333,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3246,10 +3349,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D93">
         <v>80</v>
@@ -3264,7 +3367,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D94">
         <v>50</v>
@@ -3279,7 +3382,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -3294,7 +3397,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96">
         <v>20</v>
@@ -3309,7 +3412,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -3324,10 +3427,10 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -3342,7 +3445,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -3357,7 +3460,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -3372,7 +3475,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -3387,7 +3490,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3402,7 +3505,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -3417,7 +3520,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D106">
         <v>17</v>
@@ -3432,7 +3535,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3447,7 +3550,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D108">
         <v>10</v>

--- a/documents/装修.xlsx
+++ b/documents/装修.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="194">
   <si>
     <t>拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,267 +526,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>窗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14-8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安油烟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室6件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料3040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫扣板灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吸顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开双控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开五孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关494灯具安装费220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所架子六件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关及灯具安装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防盗网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨蓬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饭煲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碗盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>桌子板凳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.14-8.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安油烟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床头柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室6件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料3040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫扣板灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吸顶灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五孔插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开双控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开五孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关插座等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关494灯具安装费220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所架子六件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关及灯具安装费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防盗网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨蓬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高压锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电饭煲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碗盘</t>
+    <t>晾衣杆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,11 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52:F54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1292,11 +1296,11 @@
       </c>
       <c r="J2" s="8">
         <f>SUM(F:F)</f>
-        <v>108256</v>
+        <v>109472</v>
       </c>
       <c r="K2" s="8">
         <f>SUM(G:G)</f>
-        <v>107782</v>
+        <v>109284</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1503,7 +1507,7 @@
         <v>6540</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1614,7 +1618,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23">
         <v>286</v>
@@ -1706,303 +1710,303 @@
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29">
+        <v>200</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="1">
         <v>2000</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>2000</v>
       </c>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2000</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>2000</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f>454+119+98+49+39</f>
         <v>759</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33">
         <v>1000</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>1000</v>
       </c>
-      <c r="F32">
-        <v>1000</v>
-      </c>
-      <c r="G32">
+      <c r="F33">
         <f>494+220</f>
         <v>714</v>
       </c>
-      <c r="H32" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33">
-        <v>3000</v>
-      </c>
-      <c r="F33">
-        <v>3350</v>
-      </c>
       <c r="G33">
-        <v>3350</v>
+        <f>494+220</f>
+        <v>714</v>
+      </c>
+      <c r="H33" t="s">
+        <v>169</v>
       </c>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34">
         <v>3000</v>
       </c>
       <c r="F34">
-        <v>1710</v>
+        <v>3350</v>
       </c>
       <c r="G34">
-        <v>1710</v>
+        <v>3350</v>
       </c>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35">
-        <v>1000</v>
+        <v>171</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F35">
-        <v>600</v>
-      </c>
-      <c r="G35" s="16">
-        <v>1000</v>
+        <v>1710</v>
+      </c>
+      <c r="G35">
+        <v>1710</v>
       </c>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
       </c>
       <c r="F36">
-        <v>450</v>
-      </c>
-      <c r="G36" s="16"/>
+        <v>600</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1000</v>
+      </c>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="G37" s="16"/>
       <c r="L37"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="L38"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41">
         <v>1000</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>1000</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>2561</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <f>1000+1561</f>
         <v>2561</v>
       </c>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42">
         <v>1000</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42">
         <v>1000</v>
       </c>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42"/>
-      <c r="B42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42">
-        <v>500</v>
-      </c>
-      <c r="D42">
-        <v>500</v>
-      </c>
-      <c r="E42"/>
       <c r="F42">
-        <v>1159</v>
-      </c>
-      <c r="G42" s="16">
-        <f>4000+8438-5463</f>
-        <v>6975</v>
-      </c>
-      <c r="L42" s="9"/>
+        <v>1302</v>
+      </c>
+      <c r="G42">
+        <v>1302</v>
+      </c>
+      <c r="L42"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C43">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D43">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="E43"/>
       <c r="F43">
-        <v>1239</v>
-      </c>
-      <c r="G43" s="16"/>
+        <v>1159</v>
+      </c>
+      <c r="G43" s="16">
+        <f>4000+8438-5463</f>
+        <v>6975</v>
+      </c>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44">
+        <v>2000</v>
+      </c>
+      <c r="D44">
+        <v>2400</v>
+      </c>
       <c r="E44"/>
-      <c r="F44"/>
+      <c r="F44">
+        <v>1239</v>
+      </c>
       <c r="G44" s="16"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="16">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" s="16"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46"/>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="16">
         <v>8000</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <v>8000</v>
       </c>
-      <c r="E45"/>
-      <c r="F45">
+      <c r="E46"/>
+      <c r="F46">
         <f>2557+1600+421</f>
         <v>4578</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="F46">
+      <c r="G46" s="16"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="F47">
         <v>1700</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <f>500+1200</f>
         <v>1700</v>
       </c>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47">
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48">
         <v>4000</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>4000</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>4000</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <f>1000+3000</f>
         <v>4000</v>
       </c>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48">
-        <v>1899</v>
-      </c>
-      <c r="G48">
-        <v>1899</v>
-      </c>
       <c r="L48"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49">
-        <v>2000</v>
-      </c>
-      <c r="D49">
-        <v>2000</v>
+        <v>182</v>
       </c>
       <c r="F49">
-        <v>2194</v>
+        <v>1899</v>
       </c>
       <c r="G49">
-        <v>2194</v>
+        <v>1899</v>
       </c>
       <c r="L49"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -2011,58 +2015,63 @@
         <v>2000</v>
       </c>
       <c r="F50">
+        <v>2194</v>
+      </c>
+      <c r="G50">
+        <v>2194</v>
+      </c>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51">
+        <v>2000</v>
+      </c>
+      <c r="D51">
+        <v>2000</v>
+      </c>
+      <c r="F51">
         <v>2499</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>2499</v>
       </c>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="1">
         <v>6000</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>6000</v>
       </c>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52">
-        <v>2000</v>
-      </c>
-      <c r="D52">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="16">
-        <v>3650</v>
-      </c>
-      <c r="G52" s="16">
-        <v>3650</v>
-      </c>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D53">
-        <v>1500</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+        <v>2000</v>
+      </c>
+      <c r="F53" s="16">
+        <v>3650</v>
+      </c>
+      <c r="G53" s="16">
+        <v>3650</v>
+      </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54">
         <v>1500</v>
@@ -2075,93 +2084,95 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55">
+        <v>1500</v>
+      </c>
+      <c r="D55">
+        <v>1500</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>126</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>300</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>300</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <f>150+150</f>
         <v>300</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <f>150+150</f>
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56">
-        <v>500</v>
-      </c>
-      <c r="D56">
-        <v>500</v>
-      </c>
-      <c r="F56">
-        <v>468</v>
-      </c>
-      <c r="G56">
-        <v>468</v>
-      </c>
-    </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+      <c r="D57">
+        <v>500</v>
       </c>
       <c r="F57">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="G57">
-        <v>358</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="F58">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="G58">
-        <v>134</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F59">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="G59">
-        <v>218</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F60">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="G60">
-        <v>146</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F61">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G61">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
@@ -2169,127 +2180,138 @@
         <v>191</v>
       </c>
       <c r="F62">
+        <v>143</v>
+      </c>
+      <c r="G62">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63">
         <v>59</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>2000</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L69" s="7">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L70" s="7">
         <v>6.16</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L70" s="7"/>
-      <c r="M70" s="3"/>
-    </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="7"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L72" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L72" s="7"/>
-      <c r="M72" s="3"/>
-    </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="7"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L74" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L74" s="7"/>
-      <c r="M74" s="3"/>
-    </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="7"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L76" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L76" s="7"/>
-      <c r="M76" s="3"/>
-    </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L77" s="7" t="s">
+      <c r="L77" s="7"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L78" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-    </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L79" s="7" t="s">
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L80" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M79" s="7" t="s">
+      <c r="M80" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-    </row>
     <row r="81" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L81" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M81" s="7" t="s">
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+    </row>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L82" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-    </row>
     <row r="83" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L83" s="7" t="s">
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L84" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M83" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G36:G38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2461,7 +2483,7 @@
   <dimension ref="B1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
@@ -2795,7 +2817,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -2810,7 +2832,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35">
         <v>10400</v>
@@ -3115,10 +3137,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
         <v>132</v>
-      </c>
-      <c r="C74" t="s">
-        <v>133</v>
       </c>
       <c r="D74">
         <v>5463</v>
@@ -3132,7 +3154,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75">
         <v>1239</v>
@@ -3146,7 +3168,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76">
         <v>1159</v>
@@ -3160,7 +3182,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77">
         <v>2557</v>
@@ -3174,7 +3196,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D78">
         <v>421</v>
@@ -3188,7 +3210,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79">
         <v>1600</v>
@@ -3207,10 +3229,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
         <v>139</v>
-      </c>
-      <c r="C81" t="s">
-        <v>140</v>
       </c>
       <c r="D81">
         <v>600</v>
@@ -3224,7 +3246,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82">
         <v>450</v>
@@ -3238,7 +3260,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D83">
         <v>100</v>
@@ -3252,10 +3274,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D85">
         <v>75</v>
@@ -3270,7 +3292,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86">
         <f>65+30</f>
@@ -3286,7 +3308,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87">
         <v>75</v>
@@ -3301,7 +3323,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -3317,7 +3339,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89">
         <v>30</v>
@@ -3333,7 +3355,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -3349,10 +3371,10 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93">
         <v>80</v>
@@ -3367,7 +3389,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D94">
         <v>50</v>
@@ -3382,7 +3404,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -3397,7 +3419,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D96">
         <v>20</v>
@@ -3412,7 +3434,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -3427,10 +3449,10 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" t="s">
         <v>156</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -3445,7 +3467,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -3460,7 +3482,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -3475,7 +3497,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -3490,7 +3512,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -3505,7 +3527,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -3520,7 +3542,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106">
         <v>17</v>
@@ -3535,7 +3557,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3550,7 +3572,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D108">
         <v>10</v>
